--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value792.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value792.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.134597470616527</v>
+        <v>1.791318535804749</v>
       </c>
       <c r="B1">
-        <v>3.293845369546147</v>
+        <v>3.985836505889893</v>
       </c>
       <c r="C1">
-        <v>2.782083845132558</v>
+        <v>1.417524218559265</v>
       </c>
       <c r="D1">
-        <v>2.112312731112869</v>
+        <v>0.8544102907180786</v>
       </c>
       <c r="E1">
-        <v>1.259896704135847</v>
+        <v>0.4618767499923706</v>
       </c>
     </row>
   </sheetData>
